--- a/tbg/Assets/Excel/config/IPlayerHasEquips.xlsx
+++ b/tbg/Assets/Excel/config/IPlayerHasEquips.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>Guid</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
@@ -39,34 +36,6 @@
     <t>equipPosition</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3c6bcd20-426c-4134-9f42-595bc0022891</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>playerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +45,22 @@
   </si>
   <si>
     <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,173 +468,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="H3" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
